--- a/src/test/java/com/inetbanking/testdata/UserandPassword.xlsx
+++ b/src/test/java/com/inetbanking/testdata/UserandPassword.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">mngr201825</t>
   </si>
@@ -28,34 +28,22 @@
     <t xml:space="preserve">YpapUbY</t>
   </si>
   <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shashnak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bharadiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pankaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devgade</t>
-  </si>
-  <si>
     <t xml:space="preserve">Akshay</t>
   </si>
   <si>
-    <t xml:space="preserve">Titu</t>
+    <t xml:space="preserve">Bharadiya</t>
   </si>
   <si>
     <t xml:space="preserve">mngr201583</t>
   </si>
   <si>
     <t xml:space="preserve">mAvApah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shashank</t>
   </si>
 </sst>
 </file>
@@ -227,10 +215,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,22 +260,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
